--- a/data.xlsx
+++ b/data.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Johnny Lee\Documents\GitHub\HPC2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40001_{1EE8DF0C-F2C6-4913-B723-001E3C3D59EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{684A9895-DF9D-467A-B1F8-364402950B38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="942" yWindow="936" windowWidth="21672" windowHeight="11496"/>
+    <workbookView xWindow="942" yWindow="936" windowWidth="21672" windowHeight="11496" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -422,11 +422,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -590,6 +590,15 @@
       <c r="D9">
         <v>6.6836273193359302E-3</v>
       </c>
+      <c r="E9">
+        <v>5.8428114414214999E-3</v>
+      </c>
+      <c r="F9">
+        <v>5.5320544719696003E-3</v>
+      </c>
+      <c r="G9">
+        <v>5.7381838321685702E-3</v>
+      </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A10">
@@ -597,6 +606,15 @@
       </c>
       <c r="B10">
         <v>100000</v>
+      </c>
+      <c r="C10">
+        <v>4.5519021797180099E-2</v>
+      </c>
+      <c r="D10">
+        <v>4.3225118875503503E-2</v>
+      </c>
+      <c r="E10">
+        <v>5.0575066804885799E-2</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Johnny Lee\Documents\GitHub\HPC2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{684A9895-DF9D-467A-B1F8-364402950B38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE8FD86B-AB2E-47C5-9BBF-C9C401B18113}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="942" yWindow="936" windowWidth="21672" windowHeight="11496" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -426,16 +426,18 @@
   <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="7" width="11.68359375" bestFit="1" customWidth="1"/>
-    <col min="8" max="12" width="10.05078125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="12" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -473,7 +475,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>16</v>
       </c>
@@ -496,7 +498,7 @@
         <v>2.30719470977783E-4</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>16</v>
       </c>
@@ -509,8 +511,17 @@
       <c r="D3">
         <v>2.38656587600708E-3</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="E3">
+        <v>2.2371387958526599E-3</v>
+      </c>
+      <c r="F3">
+        <v>2.2002834796905498E-3</v>
+      </c>
+      <c r="G3">
+        <v>2.1843459129333399E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>16</v>
       </c>
@@ -520,8 +531,20 @@
       <c r="C4">
         <v>1.3416570854187E-2</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="D4">
+        <v>1.4724555587768501E-2</v>
+      </c>
+      <c r="E4">
+        <v>1.33088707923889E-2</v>
+      </c>
+      <c r="F4">
+        <v>1.45574214458465E-2</v>
+      </c>
+      <c r="G4">
+        <v>1.43114778041839E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>32</v>
       </c>
@@ -531,8 +554,20 @@
       <c r="C5">
         <v>3.55238723754882E-4</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="D5">
+        <v>3.7165422439575102E-4</v>
+      </c>
+      <c r="E5">
+        <v>3.8973097801208502E-4</v>
+      </c>
+      <c r="F5">
+        <v>3.8151807785034099E-4</v>
+      </c>
+      <c r="G5">
+        <v>3.30906295776367E-4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>32</v>
       </c>
@@ -542,8 +577,20 @@
       <c r="C6">
         <v>3.68036608695983E-3</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="D6">
+        <v>3.1125116348266601E-3</v>
+      </c>
+      <c r="E6">
+        <v>3.3396596908569299E-3</v>
+      </c>
+      <c r="F6">
+        <v>3.3316945075988701E-3</v>
+      </c>
+      <c r="G6">
+        <v>3.07668848037719E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>32</v>
       </c>
@@ -553,8 +600,20 @@
       <c r="C7">
         <v>2.6294136190414399E-2</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="D7">
+        <v>2.3468965768814E-2</v>
+      </c>
+      <c r="E7">
+        <v>2.3050004529953001E-2</v>
+      </c>
+      <c r="F7">
+        <v>2.31648391723632E-2</v>
+      </c>
+      <c r="G7">
+        <v>2.5115735292434601E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>64</v>
       </c>
@@ -577,7 +636,7 @@
         <v>8.6901950836181603E-4</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>64</v>
       </c>
@@ -600,7 +659,7 @@
         <v>5.7381838321685702E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>64</v>
       </c>
@@ -615,6 +674,12 @@
       </c>
       <c r="E10">
         <v>5.0575066804885799E-2</v>
+      </c>
+      <c r="F10">
+        <v>4.4894329261779699E-2</v>
+      </c>
+      <c r="G10">
+        <v>4.5718158674240103E-2</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Johnny Lee\Documents\GitHub\HPC2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE8FD86B-AB2E-47C5-9BBF-C9C401B18113}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC94CE80-890B-4084-B9EF-0DC90DB1411C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,9 +38,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
-    <t>no. basis</t>
-  </si>
-  <si>
     <t>no. rows</t>
   </si>
   <si>
@@ -72,6 +69,9 @@
   </si>
   <si>
     <t>np_time_5</t>
+  </si>
+  <si>
+    <t>no. column</t>
   </si>
 </sst>
 </file>
@@ -426,7 +426,7 @@
   <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -434,45 +434,46 @@
     <col min="3" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="12" width="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>3</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>4</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>5</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>6</v>
-      </c>
-      <c r="L1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -565,6 +566,21 @@
       </c>
       <c r="G5">
         <v>3.30906295776367E-4</v>
+      </c>
+      <c r="H5">
+        <v>2.24854555130004E-4</v>
+      </c>
+      <c r="I5">
+        <v>2.5476495742797798E-4</v>
+      </c>
+      <c r="J5">
+        <v>3.0975632667541502E-4</v>
+      </c>
+      <c r="K5">
+        <v>2.4890814781188903E-4</v>
+      </c>
+      <c r="L5">
+        <v>2.2327035903930601E-4</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Johnny Lee\Documents\GitHub\HPC2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC94CE80-890B-4084-B9EF-0DC90DB1411C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22009927-67CC-4757-9C87-2CC7A942F91B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -426,7 +426,7 @@
   <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O4" sqref="O4"/>
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -434,8 +434,8 @@
     <col min="3" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="12" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" customWidth="1"/>
+    <col min="9" max="12" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -568,19 +568,19 @@
         <v>3.30906295776367E-4</v>
       </c>
       <c r="H5">
-        <v>2.24854555130004E-4</v>
+        <v>2.33445E-5</v>
       </c>
       <c r="I5">
-        <v>2.5476495742797798E-4</v>
+        <v>2.1251463143241E-5</v>
       </c>
       <c r="J5">
-        <v>3.0975632667541502E-4</v>
+        <v>2.9134898199999999E-5</v>
       </c>
       <c r="K5">
-        <v>2.4890814781188903E-4</v>
+        <v>2.6753521829231199E-5</v>
       </c>
       <c r="L5">
-        <v>2.2327035903930601E-4</v>
+        <v>2.6773489181199999E-5</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -605,6 +605,21 @@
       <c r="G6">
         <v>3.07668848037719E-3</v>
       </c>
+      <c r="H6">
+        <v>2.24854555130004E-4</v>
+      </c>
+      <c r="I6">
+        <v>2.5476495742797798E-4</v>
+      </c>
+      <c r="J6">
+        <v>3.0975632667541502E-4</v>
+      </c>
+      <c r="K6">
+        <v>2.4890814781188903E-4</v>
+      </c>
+      <c r="L6">
+        <v>2.2327035903930601E-4</v>
+      </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7">
@@ -627,6 +642,21 @@
       </c>
       <c r="G7">
         <v>2.5115735292434601E-2</v>
+      </c>
+      <c r="H7">
+        <v>2.24854555130004E-4</v>
+      </c>
+      <c r="I7">
+        <v>2.5476495742797798E-4</v>
+      </c>
+      <c r="J7">
+        <v>3.0975632667541502E-4</v>
+      </c>
+      <c r="K7">
+        <v>2.4890814781188903E-4</v>
+      </c>
+      <c r="L7">
+        <v>2.2327035903930601E-4</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Johnny Lee\Documents\GitHub\HPC2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22009927-67CC-4757-9C87-2CC7A942F91B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90920A79-E834-4CA1-81A0-FE6BBA65B883}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,8 +35,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>no. rows</t>
   </si>
@@ -72,6 +94,12 @@
   </si>
   <si>
     <t>no. column</t>
+  </si>
+  <si>
+    <t>mean_np_time</t>
+  </si>
+  <si>
+    <t>mean_gpu_time</t>
   </si>
 </sst>
 </file>
@@ -423,22 +451,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L10"/>
+  <dimension ref="A1:N24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.5703125" customWidth="1"/>
-    <col min="9" max="12" width="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="13" width="12" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -461,22 +491,28 @@
         <v>10</v>
       </c>
       <c r="H1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" t="s">
         <v>2</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>3</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>4</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>5</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>16</v>
       </c>
@@ -498,8 +534,16 @@
       <c r="G2">
         <v>2.30719470977783E-4</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H2">
+        <f>AVERAGE(C2:G2)</f>
+        <v>2.6237728118896464E-4</v>
+      </c>
+      <c r="N2" t="e">
+        <f t="shared" ref="N2:N4" si="0">AVERAGE(I2:M2)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>16</v>
       </c>
@@ -521,8 +565,16 @@
       <c r="G3">
         <v>2.1843459129333399E-3</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H3">
+        <f t="shared" ref="H3:H10" si="1">AVERAGE(C3:G3)</f>
+        <v>2.2748674392700161E-3</v>
+      </c>
+      <c r="N3" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>16</v>
       </c>
@@ -544,8 +596,16 @@
       <c r="G4">
         <v>1.43114778041839E-2</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H4">
+        <f t="shared" si="1"/>
+        <v>1.4063779296874959E-2</v>
+      </c>
+      <c r="N4" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>32</v>
       </c>
@@ -568,22 +628,30 @@
         <v>3.30906295776367E-4</v>
       </c>
       <c r="H5">
+        <f t="shared" si="1"/>
+        <v>3.6580965995788525E-4</v>
+      </c>
+      <c r="I5">
         <v>2.33445E-5</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>2.1251463143241E-5</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>2.9134898199999999E-5</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>2.6753521829231199E-5</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>2.6773489181199999E-5</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N5">
+        <f>AVERAGE(I5:M5)</f>
+        <v>2.5451574470734438E-5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>32</v>
       </c>
@@ -606,22 +674,30 @@
         <v>3.07668848037719E-3</v>
       </c>
       <c r="H6">
-        <v>2.24854555130004E-4</v>
+        <f t="shared" si="1"/>
+        <v>3.3081840801238958E-3</v>
       </c>
       <c r="I6">
-        <v>2.5476495742797798E-4</v>
+        <v>2.33445E-5</v>
       </c>
       <c r="J6">
-        <v>3.0975632667541502E-4</v>
+        <v>2.1251463143241E-5</v>
       </c>
       <c r="K6">
-        <v>2.4890814781188903E-4</v>
+        <v>2.9134898199999999E-5</v>
       </c>
       <c r="L6">
-        <v>2.2327035903930601E-4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+        <v>2.6753521829231199E-5</v>
+      </c>
+      <c r="M6">
+        <v>2.6773489181199999E-5</v>
+      </c>
+      <c r="N6">
+        <f t="shared" ref="N6:N10" si="2">AVERAGE(I6:M6)</f>
+        <v>2.5451574470734438E-5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>32</v>
       </c>
@@ -644,22 +720,30 @@
         <v>2.5115735292434601E-2</v>
       </c>
       <c r="H7">
+        <f t="shared" si="1"/>
+        <v>2.4218736190795839E-2</v>
+      </c>
+      <c r="I7">
         <v>2.24854555130004E-4</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>2.5476495742797798E-4</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>3.0975632667541502E-4</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>2.4890814781188903E-4</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>2.2327035903930601E-4</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N7">
+        <f t="shared" si="2"/>
+        <v>2.5231086921691844E-4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>64</v>
       </c>
@@ -681,8 +765,16 @@
       <c r="G8">
         <v>8.6901950836181603E-4</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H8">
+        <f t="shared" si="1"/>
+        <v>5.9752665519714331E-4</v>
+      </c>
+      <c r="N8" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>64</v>
       </c>
@@ -704,8 +796,16 @@
       <c r="G9">
         <v>5.7381838321685702E-3</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H9">
+        <f t="shared" si="1"/>
+        <v>6.0560361385345379E-3</v>
+      </c>
+      <c r="N9" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>64</v>
       </c>
@@ -726,6 +826,431 @@
       </c>
       <c r="G10">
         <v>4.5718158674240103E-2</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="1"/>
+        <v>4.5986339082717841E-2</v>
+      </c>
+      <c r="N10" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" t="str" cm="1">
+        <f t="array" ref="A12:J24">TRANSPOSE(A1:M10)</f>
+        <v>no. column</v>
+      </c>
+      <c r="B12">
+        <v>16</v>
+      </c>
+      <c r="C12">
+        <v>16</v>
+      </c>
+      <c r="D12">
+        <v>16</v>
+      </c>
+      <c r="E12">
+        <v>32</v>
+      </c>
+      <c r="F12">
+        <v>32</v>
+      </c>
+      <c r="G12">
+        <v>32</v>
+      </c>
+      <c r="H12">
+        <v>64</v>
+      </c>
+      <c r="I12">
+        <v>64</v>
+      </c>
+      <c r="J12">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" t="str">
+        <v>no. rows</v>
+      </c>
+      <c r="B13">
+        <v>1000</v>
+      </c>
+      <c r="C13">
+        <v>10000</v>
+      </c>
+      <c r="D13">
+        <v>100000</v>
+      </c>
+      <c r="E13">
+        <v>1000</v>
+      </c>
+      <c r="F13">
+        <v>10000</v>
+      </c>
+      <c r="G13">
+        <v>100000</v>
+      </c>
+      <c r="H13">
+        <v>1000</v>
+      </c>
+      <c r="I13">
+        <v>10000</v>
+      </c>
+      <c r="J13">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" t="str">
+        <v>np_time_1</v>
+      </c>
+      <c r="B14">
+        <v>3.1011934280395501E-4</v>
+      </c>
+      <c r="C14">
+        <v>2.3660031318664498E-3</v>
+      </c>
+      <c r="D14">
+        <v>1.3416570854187E-2</v>
+      </c>
+      <c r="E14">
+        <v>3.55238723754882E-4</v>
+      </c>
+      <c r="F14">
+        <v>3.68036608695983E-3</v>
+      </c>
+      <c r="G14">
+        <v>2.6294136190414399E-2</v>
+      </c>
+      <c r="H14">
+        <v>4.9449224472045898E-4</v>
+      </c>
+      <c r="I14">
+        <v>6.4835036277770897E-3</v>
+      </c>
+      <c r="J14">
+        <v>4.5519021797180099E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" t="str">
+        <v>np_time_2</v>
+      </c>
+      <c r="B15">
+        <v>3.0455780029296802E-4</v>
+      </c>
+      <c r="C15">
+        <v>2.38656587600708E-3</v>
+      </c>
+      <c r="D15">
+        <v>1.4724555587768501E-2</v>
+      </c>
+      <c r="E15">
+        <v>3.7165422439575102E-4</v>
+      </c>
+      <c r="F15">
+        <v>3.1125116348266601E-3</v>
+      </c>
+      <c r="G15">
+        <v>2.3468965768814E-2</v>
+      </c>
+      <c r="H15">
+        <v>4.9696516990661605E-4</v>
+      </c>
+      <c r="I15">
+        <v>6.6836273193359302E-3</v>
+      </c>
+      <c r="J15">
+        <v>4.3225118875503503E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" t="str">
+        <v>np_time_3</v>
+      </c>
+      <c r="B16">
+        <v>2.27450942993164E-4</v>
+      </c>
+      <c r="C16">
+        <v>2.2371387958526599E-3</v>
+      </c>
+      <c r="D16">
+        <v>1.33088707923889E-2</v>
+      </c>
+      <c r="E16">
+        <v>3.8973097801208502E-4</v>
+      </c>
+      <c r="F16">
+        <v>3.3396596908569299E-3</v>
+      </c>
+      <c r="G16">
+        <v>2.3050004529953001E-2</v>
+      </c>
+      <c r="H16">
+        <v>6.3158793449401805E-4</v>
+      </c>
+      <c r="I16">
+        <v>5.8428114414214999E-3</v>
+      </c>
+      <c r="J16">
+        <v>5.0575066804885799E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" t="str">
+        <v>np_time_4</v>
+      </c>
+      <c r="B17">
+        <v>2.3903884887695301E-4</v>
+      </c>
+      <c r="C17">
+        <v>2.2002834796905498E-3</v>
+      </c>
+      <c r="D17">
+        <v>1.45574214458465E-2</v>
+      </c>
+      <c r="E17">
+        <v>3.8151807785034099E-4</v>
+      </c>
+      <c r="F17">
+        <v>3.3316945075988701E-3</v>
+      </c>
+      <c r="G17">
+        <v>2.31648391723632E-2</v>
+      </c>
+      <c r="H17">
+        <v>4.95568418502807E-4</v>
+      </c>
+      <c r="I17">
+        <v>5.5320544719696003E-3</v>
+      </c>
+      <c r="J17">
+        <v>4.4894329261779699E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" t="str">
+        <v>np_time_5</v>
+      </c>
+      <c r="B18">
+        <v>2.30719470977783E-4</v>
+      </c>
+      <c r="C18">
+        <v>2.1843459129333399E-3</v>
+      </c>
+      <c r="D18">
+        <v>1.43114778041839E-2</v>
+      </c>
+      <c r="E18">
+        <v>3.30906295776367E-4</v>
+      </c>
+      <c r="F18">
+        <v>3.07668848037719E-3</v>
+      </c>
+      <c r="G18">
+        <v>2.5115735292434601E-2</v>
+      </c>
+      <c r="H18">
+        <v>8.6901950836181603E-4</v>
+      </c>
+      <c r="I18">
+        <v>5.7381838321685702E-3</v>
+      </c>
+      <c r="J18">
+        <v>4.5718158674240103E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" t="str">
+        <v>mean_np_time</v>
+      </c>
+      <c r="B19">
+        <v>2.6237728118896464E-4</v>
+      </c>
+      <c r="C19">
+        <v>2.2748674392700161E-3</v>
+      </c>
+      <c r="D19">
+        <v>1.4063779296874959E-2</v>
+      </c>
+      <c r="E19">
+        <v>3.6580965995788525E-4</v>
+      </c>
+      <c r="F19">
+        <v>3.3081840801238958E-3</v>
+      </c>
+      <c r="G19">
+        <v>2.4218736190795839E-2</v>
+      </c>
+      <c r="H19">
+        <v>5.9752665519714331E-4</v>
+      </c>
+      <c r="I19">
+        <v>6.0560361385345379E-3</v>
+      </c>
+      <c r="J19">
+        <v>4.5986339082717841E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" t="str">
+        <v>gpu_time_1</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>2.33445E-5</v>
+      </c>
+      <c r="F20">
+        <v>2.33445E-5</v>
+      </c>
+      <c r="G20">
+        <v>2.24854555130004E-4</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" t="str">
+        <v>gpu_time_2</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>2.1251463143241E-5</v>
+      </c>
+      <c r="F21">
+        <v>2.1251463143241E-5</v>
+      </c>
+      <c r="G21">
+        <v>2.5476495742797798E-4</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" t="str">
+        <v>gpu_time_3</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>2.9134898199999999E-5</v>
+      </c>
+      <c r="F22">
+        <v>2.9134898199999999E-5</v>
+      </c>
+      <c r="G22">
+        <v>3.0975632667541502E-4</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" t="str">
+        <v>gpu_time_4</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>2.6753521829231199E-5</v>
+      </c>
+      <c r="F23">
+        <v>2.6753521829231199E-5</v>
+      </c>
+      <c r="G23">
+        <v>2.4890814781188903E-4</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" t="str">
+        <v>gpu_time_5</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>2.6773489181199999E-5</v>
+      </c>
+      <c r="F24">
+        <v>2.6773489181199999E-5</v>
+      </c>
+      <c r="G24">
+        <v>2.2327035903930601E-4</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
